--- a/xlsx/地理信息系统_intext.xlsx
+++ b/xlsx/地理信息系统_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="358">
   <si>
     <t>地理信息系统</t>
   </si>
@@ -29,7 +29,7 @@
     <t>GIS (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_地理信息系统</t>
+    <t>政策_政策_维基百科_地理信息系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>資料庫</t>
+    <t>资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E9%A6%AC%E5%84%82%E4%BA%BA</t>
   </si>
   <si>
-    <t>克羅馬儂人</t>
+    <t>克罗马侬人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%A2%E5%9B%BE</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B5%E6%A0%BC</t>
   </si>
   <si>
-    <t>柵格</t>
+    <t>栅格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E6%A0%BC</t>
   </si>
   <si>
-    <t>網格</t>
+    <t>网格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A2%E9%87%8F</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/GIS%E8%BB%9F%E4%BB%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>GIS軟件列表</t>
+    <t>GIS软件列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GRASS</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%97%E5%8D%80</t>
   </si>
   <si>
-    <t>江南區</t>
+    <t>江南区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VBA</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%8F%90%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>手提電話</t>
+    <t>手提电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E6%8B%93%E6%89%91</t>
@@ -377,37 +377,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E9%9D%9E%E9%BB%9E%E6%BA%90%E6%B1%A1%E6%9F%93%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>農業非點源污染模式</t>
+    <t>农业非点源污染模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>地理學歷史</t>
+    <t>地理学历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文地理學</t>
+    <t>人文地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為地理學</t>
+    <t>行为地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判地理學</t>
+    <t>批判地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -419,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教地理學</t>
+    <t>宗教地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>音樂地理學</t>
+    <t>音乐地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -437,13 +434,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展地理學</t>
+    <t>发展地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟地理學</t>
+    <t>经济地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學地理學</t>
+    <t>医学地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言地理學</t>
+    <t>语言地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -497,19 +494,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會地理學</t>
+    <t>社会地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>戰略地理學</t>
+    <t>战略地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間地理學</t>
+    <t>时间地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -521,31 +518,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E8%90%BD%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>聚落地理學</t>
+    <t>聚落地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市地理學</t>
+    <t>都市地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E9%81%8B%E8%BC%B8%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通運輸地理學</t>
+    <t>交通运输地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然地理學</t>
+    <t>自然地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%A2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地形學</t>
+    <t>地形学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%AD%A6</t>
@@ -557,19 +554,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>氣候學</t>
+    <t>气候学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>水文學</t>
+    <t>水文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>土壤學</t>
+    <t>土壤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物地理學</t>
+    <t>生物地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -599,19 +596,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>景觀生態學</t>
+    <t>景观生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>湖沼學</t>
+    <t>湖沼学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>海洋學</t>
+    <t>海洋学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E8%B3%87%E8%A8%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地理資訊系統</t>
+    <t>地理资讯系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%AF%BC%E8%88%AA%E7%B3%BB%E7%BB%9F</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%99%E6%B8%AC%E5%AD%B8</t>
   </si>
   <si>
-    <t>遙測學</t>
+    <t>遥测学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E5%88%86%E6%9E%90</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>空間科學</t>
+    <t>空间科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E6%80%A7%E7%A0%94%E7%A9%B6</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%AA%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>地誌學</t>
+    <t>地志学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -677,25 +674,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>區域研究</t>
+    <t>区域研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統地理學</t>
+    <t>系统地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境地理學</t>
+    <t>环境地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國地理學會</t>
+    <t>美国地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86%E5%AD%A6%E5%AE%B6%E5%8D%8F%E4%BC%9A</t>
@@ -707,43 +704,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>巴黎地理學會</t>
+    <t>巴黎地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>皇家地理學會</t>
+    <t>皇家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%86%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>國際地理聯合會</t>
+    <t>国际地理联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>國家地理學會</t>
+    <t>国家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%9A%87%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>加拿大皇家地理學會</t>
+    <t>加拿大皇家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%98%87%E6%A0%BC%E8%98%AD%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>皇家蘇格蘭地理學會</t>
+    <t>皇家苏格兰地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>俄羅斯地理學會</t>
+    <t>俄罗斯地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E7%8B%84%E4%B9%8C%E6%96%AF%C2%B7%E6%89%98%E5%8B%92%E5%AF%86</t>
@@ -761,31 +758,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E6%9D%9C%E6%96%AF%C2%B7%E9%BA%A5%E5%8D%A1%E6%89%98</t>
   </si>
   <si>
-    <t>傑拉杜斯·麥卡托</t>
+    <t>杰拉杜斯·麦卡托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E6%9D%8E%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·李特爾</t>
+    <t>卡尔·李特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E4%BF%9D%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞歷山大·馮·洪保德</t>
+    <t>亚历山大·冯·洪保德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E7%BE%85%E7%B4%A0%C2%B7%E8%8F%AF%E8%90%8A%E5%A3%AB</t>
   </si>
   <si>
-    <t>阿爾弗雷德·羅素·華萊士</t>
+    <t>阿尔弗雷德·罗素·华莱士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%99%E6%B8%AC</t>
   </si>
   <si>
-    <t>遙測</t>
+    <t>遥测</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Defense_Weather_Satellite_System</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%B1%A1%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>氣象衛星</t>
+    <t>气象卫星</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NISAR_(satellite)</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8A%9B%E5%9B%9E%E5%BE%A9%E5%8F%8A%E6%B0%A3%E5%80%99%E5%AF%A6%E9%A9%97%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>重力回復及氣候實驗衛星</t>
+    <t>重力回复及气候实验卫星</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NPOESS</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%9D%9C%E6%AD%A2%E8%BB%8C%E9%81%93</t>
   </si>
   <si>
-    <t>地球靜止軌道</t>
+    <t>地球静止轨道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E4%BA%91%E7%B3%BB%E5%88%97%E5%8D%AB%E6%98%9F</t>
@@ -989,37 +986,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E6%AD%A2%E7%92%B0%E5%A2%83%E8%A7%80%E6%B8%AC%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>靜止環境觀測衛星</t>
+    <t>静止环境观测卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E6%97%A5%E8%91%B58%E8%99%9F</t>
   </si>
   <si>
-    <t>向日葵8號</t>
+    <t>向日葵8号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E6%97%A5%E8%91%B59%E8%99%9F</t>
   </si>
   <si>
-    <t>向日葵9號</t>
+    <t>向日葵9号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E8%A1%9B%E6%98%9F%E4%B8%89%E8%99%9F</t>
   </si>
   <si>
-    <t>福爾摩沙衛星三號</t>
+    <t>福尔摩沙卫星三号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E8%A1%9B%E6%98%9F%E4%BA%94%E8%99%9F</t>
   </si>
   <si>
-    <t>福爾摩沙衛星五號</t>
+    <t>福尔摩沙卫星五号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%9C%B0%E8%A1%9B%E6%98%9F%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>陸地衛星計畫</t>
+    <t>陆地卫星计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SPOT%E5%8D%AB%E6%98%9F</t>
@@ -1031,25 +1028,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E8%A1%9B%E6%98%9F%E9%85%AC%E8%BC%89%E6%8C%91%E6%88%B0%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>微型衛星酬載挑戰計畫</t>
+    <t>微型卫星酬载挑战计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%92%B0%E5%A2%83%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>歐洲環境衛星</t>
+    <t>欧洲环境卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E8%A1%9B%E6%98%9F%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>福爾摩沙衛星一號</t>
+    <t>福尔摩沙卫星一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E8%A1%9B%E6%98%9F%E4%BA%8C%E8%99%9F</t>
   </si>
   <si>
-    <t>福爾摩沙衛星二號</t>
+    <t>福尔摩沙卫星二号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Himawari_(satellite)</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3202,7 +3199,7 @@
         <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
         <v>57</v>
@@ -3228,10 +3225,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3257,10 +3254,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3286,10 +3283,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3315,10 +3312,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3344,10 +3341,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3373,10 +3370,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3402,10 +3399,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3431,10 +3428,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3460,10 +3457,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3489,10 +3486,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3518,10 +3515,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3547,10 +3544,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3576,10 +3573,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3605,10 +3602,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3634,10 +3631,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3663,10 +3660,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3692,10 +3689,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3721,10 +3718,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3750,10 +3747,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3779,10 +3776,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3808,10 +3805,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3837,10 +3834,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3866,10 +3863,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3895,10 +3892,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3924,10 +3921,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3953,10 +3950,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3982,10 +3979,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4011,10 +4008,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4040,10 +4037,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4069,10 +4066,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4098,10 +4095,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4127,10 +4124,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4156,10 +4153,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4185,10 +4182,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4214,10 +4211,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4243,10 +4240,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4272,10 +4269,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4301,10 +4298,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4330,10 +4327,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4388,10 +4385,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>9</v>
@@ -4417,10 +4414,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4446,10 +4443,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4475,10 +4472,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4504,10 +4501,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4533,10 +4530,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4562,10 +4559,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4591,10 +4588,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4620,10 +4617,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4649,10 +4646,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4678,10 +4675,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4707,10 +4704,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4736,10 +4733,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4765,10 +4762,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4794,10 +4791,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4823,10 +4820,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4852,10 +4849,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4881,10 +4878,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4910,10 +4907,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4939,10 +4936,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4968,10 +4965,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4997,10 +4994,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5026,10 +5023,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5055,10 +5052,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5084,10 +5081,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5113,10 +5110,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5142,10 +5139,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5171,10 +5168,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5200,10 +5197,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5229,10 +5226,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5258,10 +5255,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5287,10 +5284,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5316,10 +5313,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5345,10 +5342,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5374,10 +5371,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5403,10 +5400,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5432,10 +5429,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5461,10 +5458,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5490,10 +5487,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5519,10 +5516,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5548,10 +5545,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5577,10 +5574,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5606,10 +5603,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5635,10 +5632,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5664,10 +5661,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5693,10 +5690,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5722,10 +5719,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5751,10 +5748,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5780,10 +5777,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5809,10 +5806,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5838,10 +5835,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5867,10 +5864,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5896,10 +5893,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5925,10 +5922,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5954,10 +5951,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5983,10 +5980,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6012,10 +6009,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6041,10 +6038,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6070,10 +6067,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6099,10 +6096,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6128,10 +6125,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6157,10 +6154,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6186,10 +6183,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6215,10 +6212,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6244,10 +6241,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6273,10 +6270,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6302,10 +6299,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6331,10 +6328,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6360,10 +6357,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6389,10 +6386,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6418,10 +6415,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6447,10 +6444,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6476,10 +6473,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>320</v>
+      </c>
+      <c r="F174" t="s">
         <v>321</v>
-      </c>
-      <c r="F174" t="s">
-        <v>322</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6505,10 +6502,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6534,10 +6531,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6563,10 +6560,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6592,10 +6589,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6621,10 +6618,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6650,10 +6647,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6679,10 +6676,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -6708,10 +6705,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6737,10 +6734,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
